--- a/5/2/3/Saldos 1990 a 2021 - Mensual.xlsx
+++ b/5/2/3/Saldos 1990 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="389">
   <si>
     <t>Serie</t>
   </si>
@@ -1178,6 +1178,9 @@
   </si>
   <si>
     <t>01-05-2021</t>
+  </si>
+  <si>
+    <t>01-06-2021</t>
   </si>
 </sst>
 </file>
@@ -1535,7 +1538,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N378"/>
+  <dimension ref="A1:N379"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -18173,6 +18176,50 @@
         <v>546</v>
       </c>
     </row>
+    <row r="379" spans="1:14">
+      <c r="A379" t="s">
+        <v>388</v>
+      </c>
+      <c r="B379">
+        <v>161708</v>
+      </c>
+      <c r="C379">
+        <v>160852</v>
+      </c>
+      <c r="D379">
+        <v>639</v>
+      </c>
+      <c r="E379">
+        <v>112</v>
+      </c>
+      <c r="F379">
+        <v>104</v>
+      </c>
+      <c r="G379">
+        <v>161708</v>
+      </c>
+      <c r="H379">
+        <v>66942</v>
+      </c>
+      <c r="I379">
+        <v>12941</v>
+      </c>
+      <c r="J379">
+        <v>54002</v>
+      </c>
+      <c r="K379">
+        <v>94765</v>
+      </c>
+      <c r="L379">
+        <v>9867</v>
+      </c>
+      <c r="M379">
+        <v>84362</v>
+      </c>
+      <c r="N379">
+        <v>537</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/2/3/Saldos 1990 a 2021 - Mensual.xlsx
+++ b/5/2/3/Saldos 1990 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="390">
   <si>
     <t>Serie</t>
   </si>
@@ -1181,6 +1181,9 @@
   </si>
   <si>
     <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -1538,7 +1541,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N379"/>
+  <dimension ref="A1:N380"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -18220,6 +18223,50 @@
         <v>537</v>
       </c>
     </row>
+    <row r="380" spans="1:14">
+      <c r="A380" t="s">
+        <v>389</v>
+      </c>
+      <c r="B380">
+        <v>163251</v>
+      </c>
+      <c r="C380">
+        <v>162513</v>
+      </c>
+      <c r="D380">
+        <v>592</v>
+      </c>
+      <c r="E380">
+        <v>116</v>
+      </c>
+      <c r="F380">
+        <v>30</v>
+      </c>
+      <c r="G380">
+        <v>163251</v>
+      </c>
+      <c r="H380">
+        <v>68049</v>
+      </c>
+      <c r="I380">
+        <v>13298</v>
+      </c>
+      <c r="J380">
+        <v>54751</v>
+      </c>
+      <c r="K380">
+        <v>95202</v>
+      </c>
+      <c r="L380">
+        <v>10286</v>
+      </c>
+      <c r="M380">
+        <v>84391</v>
+      </c>
+      <c r="N380">
+        <v>524</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/2/3/Saldos 1990 a 2021 - Mensual.xlsx
+++ b/5/2/3/Saldos 1990 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="391">
   <si>
     <t>Serie</t>
   </si>
@@ -1184,6 +1184,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -1541,7 +1544,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N380"/>
+  <dimension ref="A1:N381"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -18267,6 +18270,50 @@
         <v>524</v>
       </c>
     </row>
+    <row r="381" spans="1:14">
+      <c r="A381" t="s">
+        <v>390</v>
+      </c>
+      <c r="B381">
+        <v>164598</v>
+      </c>
+      <c r="C381">
+        <v>163739</v>
+      </c>
+      <c r="D381">
+        <v>742</v>
+      </c>
+      <c r="E381">
+        <v>117</v>
+      </c>
+      <c r="F381">
+        <v>0</v>
+      </c>
+      <c r="G381">
+        <v>164598</v>
+      </c>
+      <c r="H381">
+        <v>68560</v>
+      </c>
+      <c r="I381">
+        <v>13418</v>
+      </c>
+      <c r="J381">
+        <v>55142</v>
+      </c>
+      <c r="K381">
+        <v>96038</v>
+      </c>
+      <c r="L381">
+        <v>10488</v>
+      </c>
+      <c r="M381">
+        <v>85037</v>
+      </c>
+      <c r="N381">
+        <v>513</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
